--- a/附件/result3.xlsx
+++ b/附件/result3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\2024-5-1\数学建模竞赛组委会、专家组工作\竞赛2025\A题-烟幕干扰弹投放策略\2025-8-25 A题(蔡志杰)\附件\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CUMCM\附件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C236CD6-1B49-404B-932D-9472C56F736E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D75001A-D4F7-4527-8C67-59E7E5BF0327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -494,7 +491,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
@@ -546,7 +545,37 @@
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="B2">
+        <v>179.6635</v>
+      </c>
+      <c r="C2">
+        <v>139.53530000000001</v>
+      </c>
       <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>17650.327700000002</v>
+      </c>
+      <c r="F2">
+        <v>0.87890000000000001</v>
+      </c>
+      <c r="G2">
+        <v>1800</v>
+      </c>
+      <c r="H2">
+        <v>17037.706200000001</v>
+      </c>
+      <c r="I2">
+        <v>4.4764999999999997</v>
+      </c>
+      <c r="J2">
+        <v>1705.5444</v>
+      </c>
+      <c r="K2">
+        <v>3.8</v>
+      </c>
+      <c r="L2">
         <v>1</v>
       </c>
     </row>
@@ -554,31 +583,151 @@
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="B3">
+        <v>179.6635</v>
+      </c>
+      <c r="C3">
+        <v>139.53530000000001</v>
+      </c>
       <c r="D3" s="3">
         <v>2</v>
+      </c>
+      <c r="E3">
+        <v>17264.643400000001</v>
+      </c>
+      <c r="F3">
+        <v>3.1438000000000001</v>
+      </c>
+      <c r="G3">
+        <v>1800</v>
+      </c>
+      <c r="H3">
+        <v>16495.2778</v>
+      </c>
+      <c r="I3">
+        <v>7.6619000000000002</v>
+      </c>
+      <c r="J3">
+        <v>1651.0265999999999</v>
+      </c>
+      <c r="K3">
+        <v>2.6</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="B4">
+        <v>179.6635</v>
+      </c>
+      <c r="C4">
+        <v>139.53530000000001</v>
+      </c>
       <c r="D4" s="3">
         <v>3</v>
+      </c>
+      <c r="E4">
+        <v>16981.704300000001</v>
+      </c>
+      <c r="F4">
+        <v>4.8053999999999997</v>
+      </c>
+      <c r="G4">
+        <v>1800</v>
+      </c>
+      <c r="H4">
+        <v>16131.7533</v>
+      </c>
+      <c r="I4">
+        <v>9.7966999999999995</v>
+      </c>
+      <c r="J4">
+        <v>1618.1845000000001</v>
+      </c>
+      <c r="K4">
+        <v>1.2</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="B5">
+        <v>288.74770000000001</v>
+      </c>
+      <c r="C5">
+        <v>98.933199999999999</v>
+      </c>
       <c r="D5" s="3">
         <v>1</v>
+      </c>
+      <c r="E5">
+        <v>12166.295899999999</v>
+      </c>
+      <c r="F5">
+        <v>910.0444</v>
+      </c>
+      <c r="G5">
+        <v>1400</v>
+      </c>
+      <c r="H5">
+        <v>12415.4056</v>
+      </c>
+      <c r="I5">
+        <v>176.09569999999999</v>
+      </c>
+      <c r="J5">
+        <v>1099.2569000000001</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="B6">
+        <v>288.74770000000001</v>
+      </c>
+      <c r="C6">
+        <v>98.933199999999999</v>
+      </c>
       <c r="D6" s="3">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>12258.862800000001</v>
+      </c>
+      <c r="F6">
+        <v>637.31579999999997</v>
+      </c>
+      <c r="G6">
+        <v>1400</v>
+      </c>
+      <c r="H6">
+        <v>12331.4396</v>
+      </c>
+      <c r="I6">
+        <v>423.48360000000002</v>
+      </c>
+      <c r="J6">
+        <v>1374.4724000000001</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
+      </c>
+      <c r="L6">
         <v>2</v>
       </c>
     </row>
@@ -586,31 +735,151 @@
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="B7">
+        <v>288.74770000000001</v>
+      </c>
+      <c r="C7">
+        <v>98.933199999999999</v>
+      </c>
       <c r="D7" s="3">
         <v>3</v>
+      </c>
+      <c r="E7">
+        <v>12293.7878</v>
+      </c>
+      <c r="F7">
+        <v>534.41679999999997</v>
+      </c>
+      <c r="G7">
+        <v>1400</v>
+      </c>
+      <c r="H7">
+        <v>12338.441999999999</v>
+      </c>
+      <c r="I7">
+        <v>402.8528</v>
+      </c>
+      <c r="J7">
+        <v>1390.3363999999999</v>
+      </c>
+      <c r="K7">
+        <v>3.8</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="B8">
+        <v>87</v>
+      </c>
+      <c r="C8">
+        <v>138</v>
+      </c>
       <c r="D8" s="3">
         <v>1</v>
+      </c>
+      <c r="E8">
+        <v>6130.0024999999996</v>
+      </c>
+      <c r="F8">
+        <v>-519.40419999999995</v>
+      </c>
+      <c r="G8">
+        <v>700</v>
+      </c>
+      <c r="H8">
+        <v>6151.6696000000002</v>
+      </c>
+      <c r="I8">
+        <v>-105.9716</v>
+      </c>
+      <c r="J8">
+        <v>692.33180000000004</v>
+      </c>
+      <c r="K8">
+        <v>2.8</v>
+      </c>
+      <c r="L8">
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="B9">
+        <v>87</v>
+      </c>
+      <c r="C9">
+        <v>138</v>
+      </c>
       <c r="D9" s="3">
         <v>2</v>
+      </c>
+      <c r="E9">
+        <v>6135.3621000000003</v>
+      </c>
+      <c r="F9">
+        <v>-450.65140000000002</v>
+      </c>
+      <c r="G9">
+        <v>700</v>
+      </c>
+      <c r="H9">
+        <v>6236.2563</v>
+      </c>
+      <c r="I9">
+        <v>105.6254</v>
+      </c>
+      <c r="J9">
+        <v>691.36249999999995</v>
+      </c>
+      <c r="K9">
+        <v>2.4</v>
+      </c>
+      <c r="L9">
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="B10">
+        <v>87</v>
+      </c>
+      <c r="C10">
+        <v>138</v>
+      </c>
       <c r="D10" s="3">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>6144.3256000000001</v>
+      </c>
+      <c r="F10">
+        <v>-395.62139999999999</v>
+      </c>
+      <c r="G10">
+        <v>700</v>
+      </c>
+      <c r="H10">
+        <v>6426.3621000000003</v>
+      </c>
+      <c r="I10">
+        <v>305.36270000000002</v>
+      </c>
+      <c r="J10">
+        <v>694.32749999999999</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
         <v>3</v>
       </c>
     </row>
@@ -618,15 +887,75 @@
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="B11">
+        <v>241.87549999999999</v>
+      </c>
+      <c r="C11">
+        <v>131.23490000000001</v>
+      </c>
       <c r="D11" s="3">
         <v>1</v>
+      </c>
+      <c r="E11">
+        <v>10857.6131</v>
+      </c>
+      <c r="F11">
+        <v>1733.6066000000001</v>
+      </c>
+      <c r="G11">
+        <v>1800</v>
+      </c>
+      <c r="H11">
+        <v>10133.081200000001</v>
+      </c>
+      <c r="I11">
+        <v>378.07159999999999</v>
+      </c>
+      <c r="J11">
+        <v>1127.8679999999999</v>
+      </c>
+      <c r="K11">
+        <v>3.8</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="B12">
+        <v>241.87549999999999</v>
+      </c>
+      <c r="C12">
+        <v>131.23490000000001</v>
+      </c>
       <c r="D12" s="3">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>10630.481400000001</v>
+      </c>
+      <c r="F12">
+        <v>1308.6632999999999</v>
+      </c>
+      <c r="G12">
+        <v>1800</v>
+      </c>
+      <c r="H12">
+        <v>10220.707700000001</v>
+      </c>
+      <c r="I12">
+        <v>542.01300000000003</v>
+      </c>
+      <c r="J12">
+        <v>1585.0053</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
         <v>2</v>
       </c>
     </row>
@@ -634,31 +963,151 @@
       <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="B13">
+        <v>241.87549999999999</v>
+      </c>
+      <c r="C13">
+        <v>131.23490000000001</v>
+      </c>
       <c r="D13" s="3">
         <v>3</v>
+      </c>
+      <c r="E13">
+        <v>10110.5002</v>
+      </c>
+      <c r="F13">
+        <v>335.8245</v>
+      </c>
+      <c r="G13">
+        <v>1800</v>
+      </c>
+      <c r="H13">
+        <v>9282.1563000000006</v>
+      </c>
+      <c r="I13">
+        <v>-1213.9336000000001</v>
+      </c>
+      <c r="J13">
+        <v>921.46130000000005</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="B14">
+        <v>131.04310000000001</v>
+      </c>
+      <c r="C14">
+        <v>135</v>
+      </c>
       <c r="D14" s="3">
         <v>1</v>
+      </c>
+      <c r="E14">
+        <v>11920.2606</v>
+      </c>
+      <c r="F14">
+        <v>759.78740000000005</v>
+      </c>
+      <c r="G14">
+        <v>1300</v>
+      </c>
+      <c r="H14">
+        <v>11581.9998</v>
+      </c>
+      <c r="I14">
+        <v>-371.2534</v>
+      </c>
+      <c r="J14">
+        <v>1228.6497999999999</v>
+      </c>
+      <c r="K14">
+        <v>3.6</v>
+      </c>
+      <c r="L14">
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="B15">
+        <v>131.04310000000001</v>
+      </c>
+      <c r="C15">
+        <v>135</v>
+      </c>
       <c r="D15" s="3">
         <v>2</v>
+      </c>
+      <c r="E15">
+        <v>11294.4426</v>
+      </c>
+      <c r="F15">
+        <v>-40.9589</v>
+      </c>
+      <c r="G15">
+        <v>1300</v>
+      </c>
+      <c r="H15">
+        <v>10599.7991</v>
+      </c>
+      <c r="I15">
+        <v>756.92409999999995</v>
+      </c>
+      <c r="J15">
+        <v>999.10450000000003</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="B16">
+        <v>131.04310000000001</v>
+      </c>
+      <c r="C16">
+        <v>135</v>
+      </c>
       <c r="D16" s="3">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>10421.1921</v>
+      </c>
+      <c r="F16">
+        <v>962.0761</v>
+      </c>
+      <c r="G16">
+        <v>1300</v>
+      </c>
+      <c r="H16">
+        <v>10104.057199999999</v>
+      </c>
+      <c r="I16">
+        <v>1326.3442</v>
+      </c>
+      <c r="J16">
+        <v>1237.2837999999999</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
         <v>3</v>
       </c>
     </row>
